--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl2-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl2-Ccr2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.115595000000001</v>
+        <v>19.4786585</v>
       </c>
       <c r="H2">
-        <v>14.23119</v>
+        <v>38.957317</v>
       </c>
       <c r="I2">
-        <v>0.00930697610393229</v>
+        <v>0.01644248566400343</v>
       </c>
       <c r="J2">
-        <v>0.006258695489408664</v>
+        <v>0.01108359890151296</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08299899999999999</v>
+        <v>0.06618349999999999</v>
       </c>
       <c r="N2">
-        <v>0.165998</v>
+        <v>0.132367</v>
       </c>
       <c r="O2">
-        <v>0.0002641221862538864</v>
+        <v>0.0001655054671592544</v>
       </c>
       <c r="P2">
-        <v>0.0001761022045687984</v>
+        <v>0.0001103524301067477</v>
       </c>
       <c r="Q2">
-        <v>0.5905872694049999</v>
+        <v>1.28916579483475</v>
       </c>
       <c r="R2">
-        <v>2.36234907762</v>
+        <v>5.156663179339</v>
       </c>
       <c r="S2">
-        <v>2.458178875983275E-06</v>
+        <v>2.721321271080231E-06</v>
       </c>
       <c r="T2">
-        <v>1.10217007340966E-06</v>
+        <v>1.223102073110434E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.115595000000001</v>
+        <v>19.4786585</v>
       </c>
       <c r="H3">
-        <v>14.23119</v>
+        <v>38.957317</v>
       </c>
       <c r="I3">
-        <v>0.00930697610393229</v>
+        <v>0.01644248566400343</v>
       </c>
       <c r="J3">
-        <v>0.006258695489408664</v>
+        <v>0.01108359890151296</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.101555</v>
       </c>
       <c r="O3">
-        <v>0.0001077239027980797</v>
+        <v>8.465306165110682E-05</v>
       </c>
       <c r="P3">
-        <v>0.0001077365955311771</v>
+        <v>8.466491678054775E-05</v>
       </c>
       <c r="Q3">
-        <v>0.240874750075</v>
+        <v>0.6593850546558334</v>
       </c>
       <c r="R3">
-        <v>1.44524850045</v>
+        <v>3.956310327935001</v>
       </c>
       <c r="S3">
-        <v>1.002583789164052E-06</v>
+        <v>1.391906752612323E-06</v>
       </c>
       <c r="T3">
-        <v>6.742905444952234E-07</v>
+        <v>9.383919786255652E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.115595000000001</v>
+        <v>19.4786585</v>
       </c>
       <c r="H4">
-        <v>14.23119</v>
+        <v>38.957317</v>
       </c>
       <c r="I4">
-        <v>0.00930697610393229</v>
+        <v>0.01644248566400343</v>
       </c>
       <c r="J4">
-        <v>0.006258695489408664</v>
+        <v>0.01108359890151296</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>136.0989836666667</v>
+        <v>322.3813173333334</v>
       </c>
       <c r="N4">
-        <v>408.296951</v>
+        <v>967.1439520000001</v>
       </c>
       <c r="O4">
-        <v>0.4330987254421377</v>
+        <v>0.8061808536669893</v>
       </c>
       <c r="P4">
-        <v>0.4331497559598229</v>
+        <v>0.8062937542306147</v>
       </c>
       <c r="Q4">
-        <v>968.4252476836151</v>
+        <v>6279.555587116131</v>
       </c>
       <c r="R4">
-        <v>5810.551486101691</v>
+        <v>37677.33352269679</v>
       </c>
       <c r="S4">
-        <v>0.004030839488333508</v>
+        <v>0.01325561712901352</v>
       </c>
       <c r="T4">
-        <v>0.002710952423864207</v>
+        <v>0.008936636568687201</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.115595000000001</v>
+        <v>19.4786585</v>
       </c>
       <c r="H5">
-        <v>14.23119</v>
+        <v>38.957317</v>
       </c>
       <c r="I5">
-        <v>0.00930697610393229</v>
+        <v>0.01644248566400343</v>
       </c>
       <c r="J5">
-        <v>0.006258695489408664</v>
+        <v>0.01108359890151296</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.028067</v>
+        <v>0.101798</v>
       </c>
       <c r="N5">
-        <v>0.056134</v>
+        <v>0.203596</v>
       </c>
       <c r="O5">
-        <v>8.93157435823062E-05</v>
+        <v>0.0002545668564805093</v>
       </c>
       <c r="P5">
-        <v>5.955084489731763E-05</v>
+        <v>0.0001697350046462744</v>
       </c>
       <c r="Q5">
-        <v>0.199713404865</v>
+        <v>1.982888477983</v>
       </c>
       <c r="R5">
-        <v>0.7988536194600001</v>
+        <v>7.931553911932</v>
       </c>
       <c r="S5">
-        <v>8.312594912254676E-07</v>
+        <v>4.185711888211193E-06</v>
       </c>
       <c r="T5">
-        <v>3.727106043493168E-07</v>
+        <v>1.881274711045744E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.115595000000001</v>
+        <v>19.4786585</v>
       </c>
       <c r="H6">
-        <v>14.23119</v>
+        <v>38.957317</v>
       </c>
       <c r="I6">
-        <v>0.00930697610393229</v>
+        <v>0.01644248566400343</v>
       </c>
       <c r="J6">
-        <v>0.006258695489408664</v>
+        <v>0.01108359890151296</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.323258</v>
+        <v>26.49771366666667</v>
       </c>
       <c r="N6">
-        <v>0.9697739999999999</v>
+        <v>79.49314100000001</v>
       </c>
       <c r="O6">
-        <v>0.001028682389957214</v>
+        <v>0.06626298819273425</v>
       </c>
       <c r="P6">
-        <v>0.001028803596028277</v>
+        <v>0.06627226790792524</v>
       </c>
       <c r="Q6">
-        <v>2.30017300851</v>
+        <v>516.1399155437829</v>
       </c>
       <c r="R6">
-        <v>13.80103805106</v>
+        <v>3096.839493262697</v>
       </c>
       <c r="S6">
-        <v>9.57392242186775E-06</v>
+        <v>0.001089528233413062</v>
       </c>
       <c r="T6">
-        <v>6.438968425949591E-06</v>
+        <v>0.0007345352357850529</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.115595000000001</v>
+        <v>19.4786585</v>
       </c>
       <c r="H7">
-        <v>14.23119</v>
+        <v>38.957317</v>
       </c>
       <c r="I7">
-        <v>0.00930697610393229</v>
+        <v>0.01644248566400343</v>
       </c>
       <c r="J7">
-        <v>0.006258695489408664</v>
+        <v>0.01108359890151296</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>177.6775513333333</v>
+        <v>50.806228</v>
       </c>
       <c r="N7">
-        <v>533.032654</v>
+        <v>152.418684</v>
       </c>
       <c r="O7">
-        <v>0.5654114303352707</v>
+        <v>0.1270514327549857</v>
       </c>
       <c r="P7">
-        <v>0.5654780507991516</v>
+        <v>0.1270692255099267</v>
       </c>
       <c r="Q7">
-        <v>1264.28149587971</v>
+        <v>989.6371648851382</v>
       </c>
       <c r="R7">
-        <v>7585.688975278261</v>
+        <v>5937.822989310829</v>
       </c>
       <c r="S7">
-        <v>0.005262270671020542</v>
+        <v>0.002089041361664948</v>
       </c>
       <c r="T7">
-        <v>0.003539154925896253</v>
+        <v>0.001408384328277926</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1176.01651</v>
       </c>
       <c r="I8">
-        <v>0.5127309595519816</v>
+        <v>0.3309029145291901</v>
       </c>
       <c r="J8">
-        <v>0.5171970317736688</v>
+        <v>0.3345840089140918</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.08299899999999999</v>
+        <v>0.06618349999999999</v>
       </c>
       <c r="N8">
-        <v>0.165998</v>
+        <v>0.132367</v>
       </c>
       <c r="O8">
-        <v>0.0002641221862538864</v>
+        <v>0.0001655054671592544</v>
       </c>
       <c r="P8">
-        <v>0.0001761022045687984</v>
+        <v>0.0001103524301067477</v>
       </c>
       <c r="Q8">
-        <v>32.53606477116332</v>
+        <v>25.94429622986166</v>
       </c>
       <c r="R8">
-        <v>195.2163886269799</v>
+        <v>155.66577737917</v>
       </c>
       <c r="S8">
-        <v>0.0001354236219969224</v>
+        <v>5.476624145351243E-05</v>
       </c>
       <c r="T8">
-        <v>9.107953749178197E-05</v>
+        <v>3.692215845852777E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1176.01651</v>
       </c>
       <c r="I9">
-        <v>0.5127309595519816</v>
+        <v>0.3309029145291901</v>
       </c>
       <c r="J9">
-        <v>0.5171970317736688</v>
+        <v>0.3345840089140918</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.101555</v>
       </c>
       <c r="O9">
-        <v>0.0001077239027980797</v>
+        <v>8.465306165110682E-05</v>
       </c>
       <c r="P9">
-        <v>0.0001077365955311771</v>
+        <v>8.466491678054775E-05</v>
       </c>
       <c r="Q9">
         <v>13.27003963033889</v>
@@ -1013,10 +1013,10 @@
         <v>119.43035667305</v>
       </c>
       <c r="S9">
-        <v>5.523338004834378E-05</v>
+        <v>2.801194482417046E-05</v>
       </c>
       <c r="T9">
-        <v>5.572104742212508E-05</v>
+        <v>2.832752727081363E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1176.01651</v>
       </c>
       <c r="I10">
-        <v>0.5127309595519816</v>
+        <v>0.3309029145291901</v>
       </c>
       <c r="J10">
-        <v>0.5171970317736688</v>
+        <v>0.3345840089140918</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>136.0989836666667</v>
+        <v>322.3813173333334</v>
       </c>
       <c r="N10">
-        <v>408.296951</v>
+        <v>967.1439520000001</v>
       </c>
       <c r="O10">
-        <v>0.4330987254421377</v>
+        <v>0.8061808536669893</v>
       </c>
       <c r="P10">
-        <v>0.4331497559598229</v>
+        <v>0.8062937542306147</v>
       </c>
       <c r="Q10">
-        <v>53351.55059540678</v>
+        <v>126375.2505665164</v>
       </c>
       <c r="R10">
-        <v>480163.955358661</v>
+        <v>1137377.255098648</v>
       </c>
       <c r="S10">
-        <v>0.2220631250766875</v>
+        <v>0.2667675941160372</v>
       </c>
       <c r="T10">
-        <v>0.2240237680959094</v>
+        <v>0.2697729966528726</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1176.01651</v>
       </c>
       <c r="I11">
-        <v>0.5127309595519816</v>
+        <v>0.3309029145291901</v>
       </c>
       <c r="J11">
-        <v>0.5171970317736688</v>
+        <v>0.3345840089140918</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.028067</v>
+        <v>0.101798</v>
       </c>
       <c r="N11">
-        <v>0.056134</v>
+        <v>0.203596</v>
       </c>
       <c r="O11">
-        <v>8.93157435823062E-05</v>
+        <v>0.0002545668564805093</v>
       </c>
       <c r="P11">
-        <v>5.955084489731763E-05</v>
+        <v>0.0001697350046462744</v>
       </c>
       <c r="Q11">
-        <v>11.00241846205667</v>
+        <v>39.90537622832667</v>
       </c>
       <c r="R11">
-        <v>66.01451077234</v>
+        <v>239.43225736996</v>
       </c>
       <c r="S11">
-        <v>4.579494691005459E-05</v>
+        <v>8.423691475193454E-05</v>
       </c>
       <c r="T11">
-        <v>3.079952022050681E-05</v>
+        <v>5.67906183076025E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1176.01651</v>
       </c>
       <c r="I12">
-        <v>0.5127309595519816</v>
+        <v>0.3309029145291901</v>
       </c>
       <c r="J12">
-        <v>0.5171970317736688</v>
+        <v>0.3345840089140918</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.323258</v>
+        <v>26.49771366666667</v>
       </c>
       <c r="N12">
-        <v>0.9697739999999999</v>
+        <v>79.49314100000001</v>
       </c>
       <c r="O12">
-        <v>0.001028682389957214</v>
+        <v>0.06626298819273425</v>
       </c>
       <c r="P12">
-        <v>0.001028803596028277</v>
+        <v>0.06627226790792524</v>
       </c>
       <c r="Q12">
-        <v>126.7189149965266</v>
+        <v>10387.24958308421</v>
       </c>
       <c r="R12">
-        <v>1140.47023496874</v>
+        <v>93485.24624775791</v>
       </c>
       <c r="S12">
-        <v>0.0005274373088769882</v>
+        <v>0.02192661591838907</v>
       </c>
       <c r="T12">
-        <v>0.0005320941661439016</v>
+        <v>0.02217364107646234</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1176.01651</v>
       </c>
       <c r="I13">
-        <v>0.5127309595519816</v>
+        <v>0.3309029145291901</v>
       </c>
       <c r="J13">
-        <v>0.5171970317736688</v>
+        <v>0.3345840089140918</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>177.6775513333333</v>
+        <v>50.806228</v>
       </c>
       <c r="N13">
-        <v>533.032654</v>
+        <v>152.418684</v>
       </c>
       <c r="O13">
-        <v>0.5654114303352707</v>
+        <v>0.1270514327549857</v>
       </c>
       <c r="P13">
-        <v>0.5654780507991516</v>
+        <v>0.1270692255099267</v>
       </c>
       <c r="Q13">
-        <v>69650.57794145749</v>
+        <v>19916.3209796081</v>
       </c>
       <c r="R13">
-        <v>626855.2014731175</v>
+        <v>179246.8888164728</v>
       </c>
       <c r="S13">
-        <v>0.2899039452174618</v>
+        <v>0.04204168939373416</v>
       </c>
       <c r="T13">
-        <v>0.2924635694064811</v>
+        <v>0.04251533088072006</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>225.9980216666667</v>
+        <v>375.1018676666667</v>
       </c>
       <c r="H14">
-        <v>677.994065</v>
+        <v>1125.305603</v>
       </c>
       <c r="I14">
-        <v>0.2955983564533448</v>
+        <v>0.3166340783504202</v>
       </c>
       <c r="J14">
-        <v>0.2981731251189355</v>
+        <v>0.3201564405802684</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.08299899999999999</v>
+        <v>0.06618349999999999</v>
       </c>
       <c r="N14">
-        <v>0.165998</v>
+        <v>0.132367</v>
       </c>
       <c r="O14">
-        <v>0.0002641221862538864</v>
+        <v>0.0001655054671592544</v>
       </c>
       <c r="P14">
-        <v>0.0001761022045687984</v>
+        <v>0.0001103524301067477</v>
       </c>
       <c r="Q14">
-        <v>18.75760980031166</v>
+        <v>24.82555445871683</v>
       </c>
       <c r="R14">
-        <v>112.54565880187</v>
+        <v>148.953326752301</v>
       </c>
       <c r="S14">
-        <v>7.807408415951306E-05</v>
+        <v>5.240467105592626E-05</v>
       </c>
       <c r="T14">
-        <v>5.250894467661271E-05</v>
+        <v>3.533004123235918E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>225.9980216666667</v>
+        <v>375.1018676666667</v>
       </c>
       <c r="H15">
-        <v>677.994065</v>
+        <v>1125.305603</v>
       </c>
       <c r="I15">
-        <v>0.2955983564533448</v>
+        <v>0.3166340783504202</v>
       </c>
       <c r="J15">
-        <v>0.2981731251189355</v>
+        <v>0.3201564405802684</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.101555</v>
       </c>
       <c r="O15">
-        <v>0.0001077239027980797</v>
+        <v>8.465306165110682E-05</v>
       </c>
       <c r="P15">
-        <v>0.0001077365955311771</v>
+        <v>8.466491678054775E-05</v>
       </c>
       <c r="Q15">
-        <v>7.650409696786111</v>
+        <v>12.69782339029611</v>
       </c>
       <c r="R15">
-        <v>68.853687271075</v>
+        <v>114.280410512665</v>
       </c>
       <c r="S15">
-        <v>3.184300861785223E-05</v>
+        <v>2.680404415543951E-05</v>
       </c>
       <c r="T15">
-        <v>3.21241573792058E-05</v>
+        <v>2.71060183984848E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>225.9980216666667</v>
+        <v>375.1018676666667</v>
       </c>
       <c r="H16">
-        <v>677.994065</v>
+        <v>1125.305603</v>
       </c>
       <c r="I16">
-        <v>0.2955983564533448</v>
+        <v>0.3166340783504202</v>
       </c>
       <c r="J16">
-        <v>0.2981731251189355</v>
+        <v>0.3201564405802684</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>136.0989836666667</v>
+        <v>322.3813173333334</v>
       </c>
       <c r="N16">
-        <v>408.296951</v>
+        <v>967.1439520000001</v>
       </c>
       <c r="O16">
-        <v>0.4330987254421377</v>
+        <v>0.8061808536669893</v>
       </c>
       <c r="P16">
-        <v>0.4331497559598229</v>
+        <v>0.8062937542306147</v>
       </c>
       <c r="Q16">
-        <v>30758.10105951065</v>
+        <v>120925.8342325737</v>
       </c>
       <c r="R16">
-        <v>276822.9095355959</v>
+        <v>1088332.508093163</v>
       </c>
       <c r="S16">
-        <v>0.1280232714227343</v>
+        <v>0.2552643315846022</v>
       </c>
       <c r="T16">
-        <v>0.1291536163790447</v>
+        <v>0.2581401384165753</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>225.9980216666667</v>
+        <v>375.1018676666667</v>
       </c>
       <c r="H17">
-        <v>677.994065</v>
+        <v>1125.305603</v>
       </c>
       <c r="I17">
-        <v>0.2955983564533448</v>
+        <v>0.3166340783504202</v>
       </c>
       <c r="J17">
-        <v>0.2981731251189355</v>
+        <v>0.3201564405802684</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.028067</v>
+        <v>0.101798</v>
       </c>
       <c r="N17">
-        <v>0.056134</v>
+        <v>0.203596</v>
       </c>
       <c r="O17">
-        <v>8.93157435823062E-05</v>
+        <v>0.0002545668564805093</v>
       </c>
       <c r="P17">
-        <v>5.955084489731763E-05</v>
+        <v>0.0001697350046462744</v>
       </c>
       <c r="Q17">
-        <v>6.343086474118333</v>
+        <v>38.18461992473134</v>
       </c>
       <c r="R17">
-        <v>38.05851884471</v>
+        <v>229.107719548388</v>
       </c>
       <c r="S17">
-        <v>2.640158700833809E-05</v>
+        <v>8.060454198026975E-05</v>
       </c>
       <c r="T17">
-        <v>1.775646152650621E-05</v>
+        <v>5.434175492942653E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>225.9980216666667</v>
+        <v>375.1018676666667</v>
       </c>
       <c r="H18">
-        <v>677.994065</v>
+        <v>1125.305603</v>
       </c>
       <c r="I18">
-        <v>0.2955983564533448</v>
+        <v>0.3166340783504202</v>
       </c>
       <c r="J18">
-        <v>0.2981731251189355</v>
+        <v>0.3201564405802684</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.323258</v>
+        <v>26.49771366666667</v>
       </c>
       <c r="N18">
-        <v>0.9697739999999999</v>
+        <v>79.49314100000001</v>
       </c>
       <c r="O18">
-        <v>0.001028682389957214</v>
+        <v>0.06626298819273425</v>
       </c>
       <c r="P18">
-        <v>0.001028803596028277</v>
+        <v>0.06627226790792524</v>
       </c>
       <c r="Q18">
-        <v>73.05566848792333</v>
+        <v>9939.341885263226</v>
       </c>
       <c r="R18">
-        <v>657.5010163913099</v>
+        <v>89454.07696736904</v>
       </c>
       <c r="S18">
-        <v>0.0003040768237838513</v>
+        <v>0.02098112019515119</v>
       </c>
       <c r="T18">
-        <v>0.0003067615833613502</v>
+        <v>0.0212174934025833</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>225.9980216666667</v>
+        <v>375.1018676666667</v>
       </c>
       <c r="H19">
-        <v>677.994065</v>
+        <v>1125.305603</v>
       </c>
       <c r="I19">
-        <v>0.2955983564533448</v>
+        <v>0.3166340783504202</v>
       </c>
       <c r="J19">
-        <v>0.2981731251189355</v>
+        <v>0.3201564405802684</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>177.6775513333333</v>
+        <v>50.806228</v>
       </c>
       <c r="N19">
-        <v>533.032654</v>
+        <v>152.418684</v>
       </c>
       <c r="O19">
-        <v>0.5654114303352707</v>
+        <v>0.1270514327549857</v>
       </c>
       <c r="P19">
-        <v>0.5654780507991516</v>
+        <v>0.1270692255099267</v>
       </c>
       <c r="Q19">
-        <v>40154.77509591094</v>
+        <v>19057.5110118985</v>
       </c>
       <c r="R19">
-        <v>361392.9758631985</v>
+        <v>171517.5991070865</v>
       </c>
       <c r="S19">
-        <v>0.1671346895270409</v>
+        <v>0.04022881331347528</v>
       </c>
       <c r="T19">
-        <v>0.1686103575929472</v>
+        <v>0.04068203094654957</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.69026</v>
+        <v>19.6220475</v>
       </c>
       <c r="H20">
-        <v>25.38052</v>
+        <v>39.244095</v>
       </c>
       <c r="I20">
-        <v>0.01659846387725661</v>
+        <v>0.01656352436781744</v>
       </c>
       <c r="J20">
-        <v>0.01116202833655136</v>
+        <v>0.01116518902553968</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.08299899999999999</v>
+        <v>0.06618349999999999</v>
       </c>
       <c r="N20">
-        <v>0.165998</v>
+        <v>0.132367</v>
       </c>
       <c r="O20">
-        <v>0.0002641221862538864</v>
+        <v>0.0001655054671592544</v>
       </c>
       <c r="P20">
-        <v>0.0001761022045687984</v>
+        <v>0.0001103524301067477</v>
       </c>
       <c r="Q20">
-        <v>1.05327888974</v>
+        <v>1.29865578071625</v>
       </c>
       <c r="R20">
-        <v>4.213115558959999</v>
+        <v>5.194623122865</v>
       </c>
       <c r="S20">
-        <v>4.384022567717176E-06</v>
+        <v>2.74135383829932E-06</v>
       </c>
       <c r="T20">
-        <v>1.965657797526092E-06</v>
+        <v>1.232105741569493E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.69026</v>
+        <v>19.6220475</v>
       </c>
       <c r="H21">
-        <v>25.38052</v>
+        <v>39.244095</v>
       </c>
       <c r="I21">
-        <v>0.01659846387725661</v>
+        <v>0.01656352436781744</v>
       </c>
       <c r="J21">
-        <v>0.01116202833655136</v>
+        <v>0.01116518902553968</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.101555</v>
       </c>
       <c r="O21">
-        <v>0.0001077239027980797</v>
+        <v>8.465306165110682E-05</v>
       </c>
       <c r="P21">
-        <v>0.0001077365955311771</v>
+        <v>8.466491678054775E-05</v>
       </c>
       <c r="Q21">
-        <v>0.4295864514333333</v>
+        <v>0.6642390112875001</v>
       </c>
       <c r="R21">
-        <v>2.5775187086</v>
+        <v>3.985434067725</v>
       </c>
       <c r="S21">
-        <v>1.788051309311027E-06</v>
+        <v>1.40215304946846E-06</v>
       </c>
       <c r="T21">
-        <v>1.202558932202571E-06</v>
+        <v>9.452997996864016E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.69026</v>
+        <v>19.6220475</v>
       </c>
       <c r="H22">
-        <v>25.38052</v>
+        <v>39.244095</v>
       </c>
       <c r="I22">
-        <v>0.01659846387725661</v>
+        <v>0.01656352436781744</v>
       </c>
       <c r="J22">
-        <v>0.01116202833655136</v>
+        <v>0.01116518902553968</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>136.0989836666667</v>
+        <v>322.3813173333334</v>
       </c>
       <c r="N22">
-        <v>408.296951</v>
+        <v>967.1439520000001</v>
       </c>
       <c r="O22">
-        <v>0.4330987254421377</v>
+        <v>0.8061808536669893</v>
       </c>
       <c r="P22">
-        <v>0.4331497559598229</v>
+        <v>0.8062937542306147</v>
       </c>
       <c r="Q22">
-        <v>1727.131488465753</v>
+        <v>6325.781521827241</v>
       </c>
       <c r="R22">
-        <v>10362.78893079452</v>
+        <v>37954.68913096344</v>
       </c>
       <c r="S22">
-        <v>0.007188773549537201</v>
+        <v>0.01335319621458105</v>
       </c>
       <c r="T22">
-        <v>0.00483482984999385</v>
+        <v>0.009002422176096843</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.69026</v>
+        <v>19.6220475</v>
       </c>
       <c r="H23">
-        <v>25.38052</v>
+        <v>39.244095</v>
       </c>
       <c r="I23">
-        <v>0.01659846387725661</v>
+        <v>0.01656352436781744</v>
       </c>
       <c r="J23">
-        <v>0.01116202833655136</v>
+        <v>0.01116518902553968</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1863,28 +1863,28 @@
         <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.028067</v>
+        <v>0.101798</v>
       </c>
       <c r="N23">
-        <v>0.056134</v>
+        <v>0.203596</v>
       </c>
       <c r="O23">
-        <v>8.93157435823062E-05</v>
+        <v>0.0002545668564805093</v>
       </c>
       <c r="P23">
-        <v>5.955084489731763E-05</v>
+        <v>0.0001697350046462744</v>
       </c>
       <c r="Q23">
-        <v>0.35617752742</v>
+        <v>1.997485191405</v>
       </c>
       <c r="R23">
-        <v>1.42471010968</v>
+        <v>7.98994076562</v>
       </c>
       <c r="S23">
-        <v>1.482504143521223E-06</v>
+        <v>4.216524330553601E-06</v>
       </c>
       <c r="T23">
-        <v>6.647082182094344E-07</v>
+        <v>1.895123411126509E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.69026</v>
+        <v>19.6220475</v>
       </c>
       <c r="H24">
-        <v>25.38052</v>
+        <v>39.244095</v>
       </c>
       <c r="I24">
-        <v>0.01659846387725661</v>
+        <v>0.01656352436781744</v>
       </c>
       <c r="J24">
-        <v>0.01116202833655136</v>
+        <v>0.01116518902553968</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.323258</v>
+        <v>26.49771366666667</v>
       </c>
       <c r="N24">
-        <v>0.9697739999999999</v>
+        <v>79.49314100000001</v>
       </c>
       <c r="O24">
-        <v>0.001028682389957214</v>
+        <v>0.06626298819273425</v>
       </c>
       <c r="P24">
-        <v>0.001028803596028277</v>
+        <v>0.06627226790792524</v>
       </c>
       <c r="Q24">
-        <v>4.10222806708</v>
+        <v>519.9393962087325</v>
       </c>
       <c r="R24">
-        <v>24.61336840248</v>
+        <v>3119.636377252396</v>
       </c>
       <c r="S24">
-        <v>1.707454749087482E-05</v>
+        <v>0.001097548619614753</v>
       </c>
       <c r="T24">
-        <v>1.148353489161357E-05</v>
+        <v>0.0007399423983431921</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.69026</v>
+        <v>19.6220475</v>
       </c>
       <c r="H25">
-        <v>25.38052</v>
+        <v>39.244095</v>
       </c>
       <c r="I25">
-        <v>0.01659846387725661</v>
+        <v>0.01656352436781744</v>
       </c>
       <c r="J25">
-        <v>0.01116202833655136</v>
+        <v>0.01116518902553968</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>177.6775513333333</v>
+        <v>50.806228</v>
       </c>
       <c r="N25">
-        <v>533.032654</v>
+        <v>152.418684</v>
       </c>
       <c r="O25">
-        <v>0.5654114303352707</v>
+        <v>0.1270514327549857</v>
       </c>
       <c r="P25">
-        <v>0.5654780507991516</v>
+        <v>0.1270692255099267</v>
       </c>
       <c r="Q25">
-        <v>2254.774322583346</v>
+        <v>996.9222191118301</v>
       </c>
       <c r="R25">
-        <v>13528.64593550008</v>
+        <v>5981.533314670981</v>
       </c>
       <c r="S25">
-        <v>0.009384961202207984</v>
+        <v>0.002104419502403324</v>
       </c>
       <c r="T25">
-        <v>0.00631188202671796</v>
+        <v>0.00141875192214726</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.311581666666666</v>
+        <v>133.4172743333333</v>
       </c>
       <c r="H26">
-        <v>21.934745</v>
+        <v>400.2518229999999</v>
       </c>
       <c r="I26">
-        <v>0.009563320545030469</v>
+        <v>0.1126212886044614</v>
       </c>
       <c r="J26">
-        <v>0.009646620528067522</v>
+        <v>0.1138741321875775</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.08299899999999999</v>
+        <v>0.06618349999999999</v>
       </c>
       <c r="N26">
-        <v>0.165998</v>
+        <v>0.132367</v>
       </c>
       <c r="O26">
-        <v>0.0002641221862538864</v>
+        <v>0.0001655054671592544</v>
       </c>
       <c r="P26">
-        <v>0.0001761022045687984</v>
+        <v>0.0001103524301067477</v>
       </c>
       <c r="Q26">
-        <v>0.6068539667516666</v>
+        <v>8.830022175840165</v>
       </c>
       <c r="R26">
-        <v>3.64112380051</v>
+        <v>52.98013305504099</v>
       </c>
       <c r="S26">
-        <v>2.525885130200156E-06</v>
+        <v>1.863943898255861E-05</v>
       </c>
       <c r="T26">
-        <v>1.698791141631317E-06</v>
+        <v>1.256628721319619E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.311581666666666</v>
+        <v>133.4172743333333</v>
       </c>
       <c r="H27">
-        <v>21.934745</v>
+        <v>400.2518229999999</v>
       </c>
       <c r="I27">
-        <v>0.009563320545030469</v>
+        <v>0.1126212886044614</v>
       </c>
       <c r="J27">
-        <v>0.009646620528067522</v>
+        <v>0.1138741321875775</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>0.101555</v>
       </c>
       <c r="O27">
-        <v>0.0001077239027980797</v>
+        <v>8.465306165110682E-05</v>
       </c>
       <c r="P27">
-        <v>0.0001077365955311771</v>
+        <v>8.466491678054775E-05</v>
       </c>
       <c r="Q27">
-        <v>0.2475092253861111</v>
+        <v>4.516397098307222</v>
       </c>
       <c r="R27">
-        <v>2.227583028475</v>
+        <v>40.647573884765</v>
       </c>
       <c r="S27">
-        <v>1.03019821281974E-06</v>
+        <v>9.533736887460568E-06</v>
       </c>
       <c r="T27">
-        <v>1.03929405407516E-06</v>
+        <v>9.641143925118339E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.311581666666666</v>
+        <v>133.4172743333333</v>
       </c>
       <c r="H28">
-        <v>21.934745</v>
+        <v>400.2518229999999</v>
       </c>
       <c r="I28">
-        <v>0.009563320545030469</v>
+        <v>0.1126212886044614</v>
       </c>
       <c r="J28">
-        <v>0.009646620528067522</v>
+        <v>0.1138741321875775</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>136.0989836666667</v>
+        <v>322.3813173333334</v>
       </c>
       <c r="N28">
-        <v>408.296951</v>
+        <v>967.1439520000001</v>
       </c>
       <c r="O28">
-        <v>0.4330987254421377</v>
+        <v>0.8061808536669893</v>
       </c>
       <c r="P28">
-        <v>0.4331497559598229</v>
+        <v>0.8062937542306147</v>
       </c>
       <c r="Q28">
-        <v>995.0988338291661</v>
+        <v>43011.23665460272</v>
       </c>
       <c r="R28">
-        <v>8955.889504462495</v>
+        <v>387101.1298914245</v>
       </c>
       <c r="S28">
-        <v>0.004141861939047306</v>
+        <v>0.0907931265882211</v>
       </c>
       <c r="T28">
-        <v>0.004178431327569465</v>
+        <v>0.0918160015512751</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.311581666666666</v>
+        <v>133.4172743333333</v>
       </c>
       <c r="H29">
-        <v>21.934745</v>
+        <v>400.2518229999999</v>
       </c>
       <c r="I29">
-        <v>0.009563320545030469</v>
+        <v>0.1126212886044614</v>
       </c>
       <c r="J29">
-        <v>0.009646620528067522</v>
+        <v>0.1138741321875775</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2235,28 +2235,28 @@
         <v>0.5</v>
       </c>
       <c r="M29">
-        <v>0.028067</v>
+        <v>0.101798</v>
       </c>
       <c r="N29">
-        <v>0.056134</v>
+        <v>0.203596</v>
       </c>
       <c r="O29">
-        <v>8.93157435823062E-05</v>
+        <v>0.0002545668564805093</v>
       </c>
       <c r="P29">
-        <v>5.955084489731763E-05</v>
+        <v>0.0001697350046462744</v>
       </c>
       <c r="Q29">
-        <v>0.2052141626383333</v>
+        <v>13.58161169258467</v>
       </c>
       <c r="R29">
-        <v>1.23128497583</v>
+        <v>81.48967015550799</v>
       </c>
       <c r="S29">
-        <v>8.541550855953421E-07</v>
+        <v>2.866964741282195E-05</v>
       </c>
       <c r="T29">
-        <v>5.744644028502293E-07</v>
+        <v>1.932842635594892E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.311581666666666</v>
+        <v>133.4172743333333</v>
       </c>
       <c r="H30">
-        <v>21.934745</v>
+        <v>400.2518229999999</v>
       </c>
       <c r="I30">
-        <v>0.009563320545030469</v>
+        <v>0.1126212886044614</v>
       </c>
       <c r="J30">
-        <v>0.009646620528067522</v>
+        <v>0.1138741321875775</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.323258</v>
+        <v>26.49771366666667</v>
       </c>
       <c r="N30">
-        <v>0.9697739999999999</v>
+        <v>79.49314100000001</v>
       </c>
       <c r="O30">
-        <v>0.001028682389957214</v>
+        <v>0.06626298819273425</v>
       </c>
       <c r="P30">
-        <v>0.001028803596028277</v>
+        <v>0.06627226790792524</v>
       </c>
       <c r="Q30">
-        <v>2.363527266403333</v>
+        <v>3535.252733471783</v>
       </c>
       <c r="R30">
-        <v>21.27174539763</v>
+        <v>31817.27460124604</v>
       </c>
       <c r="S30">
-        <v>9.837619434188871E-06</v>
+        <v>0.007462623117047945</v>
       </c>
       <c r="T30">
-        <v>9.924477888796064E-06</v>
+        <v>0.007546696996117626</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.311581666666666</v>
+        <v>133.4172743333333</v>
       </c>
       <c r="H31">
-        <v>21.934745</v>
+        <v>400.2518229999999</v>
       </c>
       <c r="I31">
-        <v>0.009563320545030469</v>
+        <v>0.1126212886044614</v>
       </c>
       <c r="J31">
-        <v>0.009646620528067522</v>
+        <v>0.1138741321875775</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>177.6775513333333</v>
+        <v>50.806228</v>
       </c>
       <c r="N31">
-        <v>533.032654</v>
+        <v>152.418684</v>
       </c>
       <c r="O31">
-        <v>0.5654114303352707</v>
+        <v>0.1270514327549857</v>
       </c>
       <c r="P31">
-        <v>0.5654780507991516</v>
+        <v>0.1270692255099267</v>
       </c>
       <c r="Q31">
-        <v>1299.103926907025</v>
+        <v>6778.428458917881</v>
       </c>
       <c r="R31">
-        <v>11691.93534216323</v>
+        <v>61005.85613026093</v>
       </c>
       <c r="S31">
-        <v>0.005407210748120358</v>
+        <v>0.01430869607590957</v>
       </c>
       <c r="T31">
-        <v>0.005454952173010705</v>
+        <v>0.01446989778269048</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>119.4232813333333</v>
+        <v>245.0287756666667</v>
       </c>
       <c r="H32">
-        <v>358.269844</v>
+        <v>735.086327</v>
       </c>
       <c r="I32">
-        <v>0.1562019234684543</v>
+        <v>0.2068357084841073</v>
       </c>
       <c r="J32">
-        <v>0.1575624987533681</v>
+        <v>0.2091366303910096</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.08299899999999999</v>
+        <v>0.06618349999999999</v>
       </c>
       <c r="N32">
-        <v>0.165998</v>
+        <v>0.132367</v>
       </c>
       <c r="O32">
-        <v>0.0002641221862538864</v>
+        <v>0.0001655054671592544</v>
       </c>
       <c r="P32">
-        <v>0.0001761022045687984</v>
+        <v>0.0001103524301067477</v>
       </c>
       <c r="Q32">
-        <v>9.912012927385332</v>
+        <v>16.21686197433483</v>
       </c>
       <c r="R32">
-        <v>59.47207756431199</v>
+        <v>97.30117184600898</v>
       </c>
       <c r="S32">
-        <v>4.12563935235504E-05</v>
+        <v>3.423244055787754E-05</v>
       </c>
       <c r="T32">
-        <v>2.774710338783668E-05</v>
+        <v>2.307873538798461E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>119.4232813333333</v>
+        <v>245.0287756666667</v>
       </c>
       <c r="H33">
-        <v>358.269844</v>
+        <v>735.086327</v>
       </c>
       <c r="I33">
-        <v>0.1562019234684543</v>
+        <v>0.2068357084841073</v>
       </c>
       <c r="J33">
-        <v>0.1575624987533681</v>
+        <v>0.2091366303910096</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>0.101555</v>
       </c>
       <c r="O33">
-        <v>0.0001077239027980797</v>
+        <v>8.465306165110682E-05</v>
       </c>
       <c r="P33">
-        <v>0.0001077365955311771</v>
+        <v>8.466491678054775E-05</v>
       </c>
       <c r="Q33">
-        <v>4.042677111935555</v>
+        <v>8.294632437609446</v>
       </c>
       <c r="R33">
-        <v>36.38409400742</v>
+        <v>74.651691938485</v>
       </c>
       <c r="S33">
-        <v>1.682668082058885E-05</v>
+        <v>1.750927598195549E-05</v>
       </c>
       <c r="T33">
-        <v>1.697524719907321E-05</v>
+        <v>1.7706535407819E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>119.4232813333333</v>
+        <v>245.0287756666667</v>
       </c>
       <c r="H34">
-        <v>358.269844</v>
+        <v>735.086327</v>
       </c>
       <c r="I34">
-        <v>0.1562019234684543</v>
+        <v>0.2068357084841073</v>
       </c>
       <c r="J34">
-        <v>0.1575624987533681</v>
+        <v>0.2091366303910096</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>136.0989836666667</v>
+        <v>322.3813173333334</v>
       </c>
       <c r="N34">
-        <v>408.296951</v>
+        <v>967.1439520000001</v>
       </c>
       <c r="O34">
-        <v>0.4330987254421377</v>
+        <v>0.8061808536669893</v>
       </c>
       <c r="P34">
-        <v>0.4331497559598229</v>
+        <v>0.8062937542306147</v>
       </c>
       <c r="Q34">
-        <v>16253.38721560507</v>
+        <v>78992.69948399381</v>
       </c>
       <c r="R34">
-        <v>146280.4849404457</v>
+        <v>710934.2953559444</v>
       </c>
       <c r="S34">
-        <v>0.0676508539657979</v>
+        <v>0.1667469880345342</v>
       </c>
       <c r="T34">
-        <v>0.06824815788344131</v>
+        <v>0.1686255588651076</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>119.4232813333333</v>
+        <v>245.0287756666667</v>
       </c>
       <c r="H35">
-        <v>358.269844</v>
+        <v>735.086327</v>
       </c>
       <c r="I35">
-        <v>0.1562019234684543</v>
+        <v>0.2068357084841073</v>
       </c>
       <c r="J35">
-        <v>0.1575624987533681</v>
+        <v>0.2091366303910096</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -2607,28 +2607,28 @@
         <v>0.5</v>
       </c>
       <c r="M35">
-        <v>0.028067</v>
+        <v>0.101798</v>
       </c>
       <c r="N35">
-        <v>0.056134</v>
+        <v>0.203596</v>
       </c>
       <c r="O35">
-        <v>8.93157435823062E-05</v>
+        <v>0.0002545668564805093</v>
       </c>
       <c r="P35">
-        <v>5.955084489731763E-05</v>
+        <v>0.0001697350046462744</v>
       </c>
       <c r="Q35">
-        <v>3.351853237182667</v>
+        <v>24.94343930531533</v>
       </c>
       <c r="R35">
-        <v>20.111119423096</v>
+        <v>149.660635831892</v>
       </c>
       <c r="S35">
-        <v>1.395129094357148E-05</v>
+        <v>5.26535161167182E-05</v>
       </c>
       <c r="T35">
-        <v>9.38297992489563E-06</v>
+        <v>3.549780693112419E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>119.4232813333333</v>
+        <v>245.0287756666667</v>
       </c>
       <c r="H36">
-        <v>358.269844</v>
+        <v>735.086327</v>
       </c>
       <c r="I36">
-        <v>0.1562019234684543</v>
+        <v>0.2068357084841073</v>
       </c>
       <c r="J36">
-        <v>0.1575624987533681</v>
+        <v>0.2091366303910096</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.323258</v>
+        <v>26.49771366666667</v>
       </c>
       <c r="N36">
-        <v>0.9697739999999999</v>
+        <v>79.49314100000001</v>
       </c>
       <c r="O36">
-        <v>0.001028682389957214</v>
+        <v>0.06626298819273425</v>
       </c>
       <c r="P36">
-        <v>0.001028803596028277</v>
+        <v>0.06627226790792524</v>
       </c>
       <c r="Q36">
-        <v>38.60453107725066</v>
+        <v>6492.702337709235</v>
       </c>
       <c r="R36">
-        <v>347.440779695256</v>
+        <v>58434.32103938311</v>
       </c>
       <c r="S36">
-        <v>0.0001606821679494434</v>
+        <v>0.01370555210911823</v>
       </c>
       <c r="T36">
-        <v>0.0001621008653166661</v>
+        <v>0.01385995879863373</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>119.4232813333333</v>
+        <v>245.0287756666667</v>
       </c>
       <c r="H37">
-        <v>358.269844</v>
+        <v>735.086327</v>
       </c>
       <c r="I37">
-        <v>0.1562019234684543</v>
+        <v>0.2068357084841073</v>
       </c>
       <c r="J37">
-        <v>0.1575624987533681</v>
+        <v>0.2091366303910096</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>177.6775513333333</v>
+        <v>50.806228</v>
       </c>
       <c r="N37">
-        <v>533.032654</v>
+        <v>152.418684</v>
       </c>
       <c r="O37">
-        <v>0.5654114303352707</v>
+        <v>0.1270514327549857</v>
       </c>
       <c r="P37">
-        <v>0.5654780507991516</v>
+        <v>0.1270692255099267</v>
       </c>
       <c r="Q37">
-        <v>21218.83619949844</v>
+        <v>12448.98784308152</v>
       </c>
       <c r="R37">
-        <v>190969.525795486</v>
+        <v>112040.8905877337</v>
       </c>
       <c r="S37">
-        <v>0.08831835296941924</v>
+        <v>0.02627877310779838</v>
       </c>
       <c r="T37">
-        <v>0.08909813467409837</v>
+        <v>0.02657482964954139</v>
       </c>
     </row>
   </sheetData>
